--- a/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470FE729-82EC-4243-B2FE-4AD22C037605}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFBCFCE-824C-48F8-990F-5E87774F8CB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20595" yWindow="2400" windowWidth="14400" windowHeight="11820" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Version</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>v_show_container</t>
+  </si>
+  <si>
+    <t>ผู้ตรวจ</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +187,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -192,11 +201,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
-  <dimension ref="B2:K168"/>
+  <dimension ref="B2:L168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -524,55 +536,60 @@
     <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
     <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+    <row r="3" spans="2:12" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -581,806 +598,872 @@
       <c r="D4" s="6">
         <v>44379</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
-        <f>SUM(E4:J4)</f>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
+        <f>SUM(F4:K4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
+    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
         <v>44381</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="7"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-    </row>
-    <row r="65" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="7"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -1390,9 +1473,10 @@
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K70" s="8"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -1402,9 +1486,10 @@
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
-      <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K71" s="8"/>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -1414,9 +1499,10 @@
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
-      <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K72" s="8"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -1426,9 +1512,10 @@
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
-      <c r="K73" s="5"/>
-    </row>
-    <row r="74" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K73" s="8"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -1438,9 +1525,10 @@
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
-      <c r="K74" s="5"/>
-    </row>
-    <row r="75" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K74" s="8"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -1450,9 +1538,10 @@
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
-      <c r="K75" s="5"/>
-    </row>
-    <row r="76" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K75" s="8"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -1462,9 +1551,10 @@
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
-      <c r="K76" s="5"/>
-    </row>
-    <row r="77" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K76" s="8"/>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -1474,9 +1564,10 @@
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
-      <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K77" s="8"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -1486,9 +1577,10 @@
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K78" s="8"/>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -1498,9 +1590,10 @@
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K79" s="8"/>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -1510,9 +1603,10 @@
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K80" s="8"/>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -1522,9 +1616,10 @@
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K81" s="8"/>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -1534,9 +1629,10 @@
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K82" s="8"/>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -1546,9 +1642,10 @@
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
-      <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K83" s="8"/>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -1558,9 +1655,10 @@
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
-      <c r="K84" s="5"/>
-    </row>
-    <row r="85" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K84" s="8"/>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -1570,9 +1668,10 @@
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
-      <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K85" s="8"/>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -1582,9 +1681,10 @@
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K86" s="8"/>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -1594,9 +1694,10 @@
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
-      <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K87" s="8"/>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -1606,9 +1707,10 @@
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K88" s="8"/>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -1618,9 +1720,10 @@
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K89" s="8"/>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -1630,9 +1733,10 @@
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
-      <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K90" s="8"/>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -1642,9 +1746,10 @@
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
-      <c r="K91" s="5"/>
-    </row>
-    <row r="92" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K91" s="8"/>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -1654,9 +1759,10 @@
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
-      <c r="K92" s="5"/>
-    </row>
-    <row r="93" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K92" s="8"/>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -1666,9 +1772,10 @@
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
-      <c r="K93" s="5"/>
-    </row>
-    <row r="94" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K93" s="8"/>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -1678,9 +1785,10 @@
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
-      <c r="K94" s="5"/>
-    </row>
-    <row r="95" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K94" s="8"/>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -1690,9 +1798,10 @@
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
-      <c r="K95" s="5"/>
-    </row>
-    <row r="96" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K95" s="8"/>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -1702,9 +1811,10 @@
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
-      <c r="K96" s="5"/>
-    </row>
-    <row r="97" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K96" s="8"/>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -1714,9 +1824,10 @@
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
-      <c r="K97" s="5"/>
-    </row>
-    <row r="98" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K97" s="8"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -1726,9 +1837,10 @@
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
-      <c r="K98" s="5"/>
-    </row>
-    <row r="99" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K98" s="8"/>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -1738,9 +1850,10 @@
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
-      <c r="K99" s="5"/>
-    </row>
-    <row r="100" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K99" s="8"/>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -1750,9 +1863,10 @@
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
-      <c r="K100" s="5"/>
-    </row>
-    <row r="101" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K100" s="8"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -1762,9 +1876,10 @@
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
-      <c r="K101" s="5"/>
-    </row>
-    <row r="102" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K101" s="8"/>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -1774,9 +1889,10 @@
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
-      <c r="K102" s="5"/>
-    </row>
-    <row r="103" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K102" s="8"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -1786,9 +1902,10 @@
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
-      <c r="K103" s="5"/>
-    </row>
-    <row r="104" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K103" s="8"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -1798,9 +1915,10 @@
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
-      <c r="K104" s="5"/>
-    </row>
-    <row r="105" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K104" s="8"/>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -1810,9 +1928,10 @@
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
-      <c r="K105" s="5"/>
-    </row>
-    <row r="106" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K105" s="8"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -1822,9 +1941,10 @@
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
-      <c r="K106" s="5"/>
-    </row>
-    <row r="107" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K106" s="8"/>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -1834,9 +1954,10 @@
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
-      <c r="K107" s="5"/>
-    </row>
-    <row r="108" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K107" s="8"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -1846,9 +1967,10 @@
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
-      <c r="K108" s="5"/>
-    </row>
-    <row r="109" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K108" s="8"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -1858,9 +1980,10 @@
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
-      <c r="K109" s="5"/>
-    </row>
-    <row r="110" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K109" s="8"/>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -1870,9 +1993,10 @@
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
-      <c r="K110" s="5"/>
-    </row>
-    <row r="111" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K110" s="8"/>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -1882,9 +2006,10 @@
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
-      <c r="K111" s="5"/>
-    </row>
-    <row r="112" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K111" s="8"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -1894,9 +2019,10 @@
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
-      <c r="K112" s="5"/>
-    </row>
-    <row r="113" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K112" s="8"/>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -1906,9 +2032,10 @@
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
-      <c r="K113" s="5"/>
-    </row>
-    <row r="114" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K113" s="8"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -1918,9 +2045,10 @@
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
-      <c r="K114" s="5"/>
-    </row>
-    <row r="115" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K114" s="8"/>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -1930,9 +2058,10 @@
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
-      <c r="K115" s="5"/>
-    </row>
-    <row r="116" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K115" s="8"/>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -1942,9 +2071,10 @@
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
-      <c r="K116" s="5"/>
-    </row>
-    <row r="117" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K116" s="8"/>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="117" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -1954,9 +2084,10 @@
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
-      <c r="K117" s="5"/>
-    </row>
-    <row r="118" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K117" s="8"/>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -1966,9 +2097,10 @@
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
-      <c r="K118" s="5"/>
-    </row>
-    <row r="119" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K118" s="8"/>
+      <c r="L118" s="5"/>
+    </row>
+    <row r="119" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -1978,9 +2110,10 @@
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
-      <c r="K119" s="5"/>
-    </row>
-    <row r="120" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K119" s="8"/>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -1990,9 +2123,10 @@
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
-      <c r="K120" s="5"/>
-    </row>
-    <row r="121" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K120" s="8"/>
+      <c r="L120" s="5"/>
+    </row>
+    <row r="121" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -2002,9 +2136,10 @@
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
-      <c r="K121" s="5"/>
-    </row>
-    <row r="122" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K121" s="8"/>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -2014,9 +2149,10 @@
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
-      <c r="K122" s="5"/>
-    </row>
-    <row r="123" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K122" s="8"/>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -2026,9 +2162,10 @@
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
-      <c r="K123" s="5"/>
-    </row>
-    <row r="124" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K123" s="8"/>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -2038,9 +2175,10 @@
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
-      <c r="K124" s="5"/>
-    </row>
-    <row r="125" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K124" s="8"/>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -2050,9 +2188,10 @@
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
-      <c r="K125" s="5"/>
-    </row>
-    <row r="126" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K125" s="8"/>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -2062,9 +2201,10 @@
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
-      <c r="K126" s="5"/>
-    </row>
-    <row r="127" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K126" s="8"/>
+      <c r="L126" s="5"/>
+    </row>
+    <row r="127" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -2074,9 +2214,10 @@
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
-      <c r="K127" s="5"/>
-    </row>
-    <row r="128" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K127" s="8"/>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="128" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -2086,9 +2227,10 @@
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
-      <c r="K128" s="5"/>
-    </row>
-    <row r="129" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K128" s="8"/>
+      <c r="L128" s="5"/>
+    </row>
+    <row r="129" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -2098,9 +2240,10 @@
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
-      <c r="K129" s="5"/>
-    </row>
-    <row r="130" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K129" s="8"/>
+      <c r="L129" s="5"/>
+    </row>
+    <row r="130" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -2110,9 +2253,10 @@
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
-      <c r="K130" s="5"/>
-    </row>
-    <row r="131" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K130" s="8"/>
+      <c r="L130" s="5"/>
+    </row>
+    <row r="131" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -2122,9 +2266,10 @@
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
-      <c r="K131" s="5"/>
-    </row>
-    <row r="132" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K131" s="8"/>
+      <c r="L131" s="5"/>
+    </row>
+    <row r="132" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -2134,9 +2279,10 @@
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
-      <c r="K132" s="5"/>
-    </row>
-    <row r="133" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K132" s="8"/>
+      <c r="L132" s="5"/>
+    </row>
+    <row r="133" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -2146,9 +2292,10 @@
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
-      <c r="K133" s="5"/>
-    </row>
-    <row r="134" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K133" s="8"/>
+      <c r="L133" s="5"/>
+    </row>
+    <row r="134" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -2158,9 +2305,10 @@
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
-      <c r="K134" s="5"/>
-    </row>
-    <row r="135" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K134" s="8"/>
+      <c r="L134" s="5"/>
+    </row>
+    <row r="135" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -2170,9 +2318,10 @@
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
-      <c r="K135" s="5"/>
-    </row>
-    <row r="136" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K135" s="8"/>
+      <c r="L135" s="5"/>
+    </row>
+    <row r="136" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -2182,9 +2331,10 @@
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
-      <c r="K136" s="5"/>
-    </row>
-    <row r="137" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K136" s="8"/>
+      <c r="L136" s="5"/>
+    </row>
+    <row r="137" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -2194,9 +2344,10 @@
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
-      <c r="K137" s="5"/>
-    </row>
-    <row r="138" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K137" s="8"/>
+      <c r="L137" s="5"/>
+    </row>
+    <row r="138" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -2206,9 +2357,10 @@
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
-      <c r="K138" s="5"/>
-    </row>
-    <row r="139" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K138" s="8"/>
+      <c r="L138" s="5"/>
+    </row>
+    <row r="139" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -2218,9 +2370,10 @@
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
-      <c r="K139" s="5"/>
-    </row>
-    <row r="140" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K139" s="8"/>
+      <c r="L139" s="5"/>
+    </row>
+    <row r="140" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -2230,9 +2383,10 @@
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
-      <c r="K140" s="5"/>
-    </row>
-    <row r="141" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K140" s="8"/>
+      <c r="L140" s="5"/>
+    </row>
+    <row r="141" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -2242,9 +2396,10 @@
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
-      <c r="K141" s="5"/>
-    </row>
-    <row r="142" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K141" s="8"/>
+      <c r="L141" s="5"/>
+    </row>
+    <row r="142" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -2254,9 +2409,10 @@
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
-      <c r="K142" s="5"/>
-    </row>
-    <row r="143" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K142" s="8"/>
+      <c r="L142" s="5"/>
+    </row>
+    <row r="143" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -2266,9 +2422,10 @@
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
-      <c r="K143" s="5"/>
-    </row>
-    <row r="144" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K143" s="8"/>
+      <c r="L143" s="5"/>
+    </row>
+    <row r="144" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -2278,69 +2435,70 @@
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
-      <c r="K144" s="5"/>
-    </row>
-    <row r="145" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K144" s="8"/>
+      <c r="L144" s="5"/>
+    </row>
+    <row r="145" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="3"/>
-      <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="3"/>
-      <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L146" s="2"/>
+    </row>
+    <row r="147" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="3"/>
-      <c r="K147" s="2"/>
-    </row>
-    <row r="148" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="3"/>
-      <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="3"/>
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="3"/>
-      <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="3"/>
-      <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
-      <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>
-      <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="3"/>
-      <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
-      <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="3"/>
-      <c r="K156" s="2"/>
-    </row>
-    <row r="157" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
-      <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="3"/>
-      <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L158" s="2"/>
+    </row>
+    <row r="159" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="3"/>
-      <c r="K159" s="2"/>
-    </row>
-    <row r="160" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="3"/>
     </row>
     <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,18 +2526,19 @@
       <c r="B168" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:K3"/>
+  <mergeCells count="12">
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Work_ปี3\งานteam4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A23A4B-F93E-4284-B5D2-957A8119E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83CB255-6CA9-4488-A68B-D2E418886581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Version</t>
   </si>
@@ -89,16 +88,31 @@
   <si>
     <t>Agent_show</t>
   </si>
+  <si>
+    <t>Da_cdms_service</t>
+  </si>
+  <si>
+    <t>M_cdms_service</t>
+  </si>
+  <si>
+    <t>Service_show</t>
+  </si>
+  <si>
+    <t>v_service_showlist</t>
+  </si>
+  <si>
+    <t>ปรีชญา กล้ายุทธ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -107,7 +121,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +222,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -215,9 +238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -229,12 +249,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -250,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,70 +565,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1"/>
-    <col min="2" max="2" width="26.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1"/>
-    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="50.4" customHeight="1">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="44.4" customHeight="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1">
-      <c r="B4" s="10" t="s">
+    <row r="3" spans="2:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -638,8 +655,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1">
-      <c r="B5" s="11"/>
+    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
         <v>44381</v>
@@ -653,8 +670,8 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:12" ht="30" customHeight="1">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -680,8 +697,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="30" customHeight="1">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -709,8 +726,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1">
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -736,8 +753,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1">
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -765,59 +782,107 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1">
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44379</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44379</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44379</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44379</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10">
+        <v>3</v>
+      </c>
+      <c r="L13" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -830,7 +895,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1">
+    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -843,7 +908,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -856,7 +921,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" ht="30" customHeight="1">
+    <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -869,7 +934,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" ht="30" customHeight="1">
+    <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -882,7 +947,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" ht="30" customHeight="1">
+    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -895,7 +960,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" ht="30" customHeight="1">
+    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -908,7 +973,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" ht="30" customHeight="1">
+    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -921,7 +986,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" ht="30" customHeight="1">
+    <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -934,7 +999,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" ht="30" customHeight="1">
+    <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -947,7 +1012,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" ht="30" customHeight="1">
+    <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -960,7 +1025,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" ht="30" customHeight="1">
+    <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -973,7 +1038,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" ht="30" customHeight="1">
+    <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -986,7 +1051,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" ht="30" customHeight="1">
+    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -999,7 +1064,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" ht="30" customHeight="1">
+    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1012,7 +1077,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1">
+    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1025,7 +1090,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1">
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1038,7 +1103,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" ht="30" customHeight="1">
+    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1051,7 +1116,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" ht="30" customHeight="1">
+    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1064,7 +1129,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" ht="30" customHeight="1">
+    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1077,7 +1142,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1">
+    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1090,7 +1155,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" ht="30" customHeight="1">
+    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1103,7 +1168,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1">
+    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1116,7 +1181,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1">
+    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1129,7 +1194,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1">
+    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1142,7 +1207,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1">
+    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1155,7 +1220,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" ht="30" customHeight="1">
+    <row r="40" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1168,7 +1233,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1">
+    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1181,7 +1246,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" ht="30" customHeight="1">
+    <row r="42" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1194,7 +1259,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" ht="30" customHeight="1">
+    <row r="43" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1207,7 +1272,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" ht="30" customHeight="1">
+    <row r="44" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1220,7 +1285,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" ht="30" customHeight="1">
+    <row r="45" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1233,7 +1298,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" ht="30" customHeight="1">
+    <row r="46" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1246,7 +1311,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" ht="30" customHeight="1">
+    <row r="47" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1259,7 +1324,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" ht="30" customHeight="1">
+    <row r="48" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1272,7 +1337,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" ht="30" customHeight="1">
+    <row r="49" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1285,7 +1350,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" ht="30" customHeight="1">
+    <row r="50" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1298,7 +1363,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" ht="30" customHeight="1">
+    <row r="51" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1311,7 +1376,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" ht="30" customHeight="1">
+    <row r="52" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1324,7 +1389,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" ht="30" customHeight="1">
+    <row r="53" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1337,7 +1402,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" ht="30" customHeight="1">
+    <row r="54" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1350,7 +1415,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" ht="30" customHeight="1">
+    <row r="55" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1363,7 +1428,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" ht="30" customHeight="1">
+    <row r="56" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1376,7 +1441,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" ht="30" customHeight="1">
+    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1389,7 +1454,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1">
+    <row r="58" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1402,7 +1467,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1">
+    <row r="59" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1415,7 +1480,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1">
+    <row r="60" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1428,7 +1493,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1">
+    <row r="61" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1441,7 +1506,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1">
+    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1454,7 +1519,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1">
+    <row r="63" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1467,7 +1532,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1">
+    <row r="64" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1480,7 +1545,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="2:12" ht="30" customHeight="1">
+    <row r="65" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1493,7 +1558,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="2:12" ht="30" customHeight="1">
+    <row r="66" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1506,7 +1571,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="2:12" ht="30" customHeight="1">
+    <row r="67" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1519,7 +1584,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="2:12" ht="30" customHeight="1">
+    <row r="68" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1532,7 +1597,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="2:12" ht="30" customHeight="1">
+    <row r="69" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1545,7 +1610,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="2:12" ht="30" customHeight="1">
+    <row r="70" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1558,7 +1623,7 @@
       <c r="K70" s="7"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="2:12" ht="30" customHeight="1">
+    <row r="71" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -1571,7 +1636,7 @@
       <c r="K71" s="7"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="2:12" ht="30" customHeight="1">
+    <row r="72" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1584,7 +1649,7 @@
       <c r="K72" s="7"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="2:12" ht="30" customHeight="1">
+    <row r="73" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1597,7 +1662,7 @@
       <c r="K73" s="7"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="2:12" ht="30" customHeight="1">
+    <row r="74" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1610,7 +1675,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="2:12" ht="30" customHeight="1">
+    <row r="75" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1623,7 +1688,7 @@
       <c r="K75" s="7"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="2:12" ht="30" customHeight="1">
+    <row r="76" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1636,7 +1701,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="2:12" ht="30" customHeight="1">
+    <row r="77" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1649,7 +1714,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="2:12" ht="30" customHeight="1">
+    <row r="78" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -1662,7 +1727,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="2:12" ht="30" customHeight="1">
+    <row r="79" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1675,7 +1740,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="2:12" ht="30" customHeight="1">
+    <row r="80" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -1688,7 +1753,7 @@
       <c r="K80" s="7"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="2:12" ht="30" customHeight="1">
+    <row r="81" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -1701,7 +1766,7 @@
       <c r="K81" s="7"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="2:12" ht="30" customHeight="1">
+    <row r="82" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -1714,7 +1779,7 @@
       <c r="K82" s="7"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="2:12" ht="30" customHeight="1">
+    <row r="83" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -1727,7 +1792,7 @@
       <c r="K83" s="7"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="2:12" ht="30" customHeight="1">
+    <row r="84" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -1740,7 +1805,7 @@
       <c r="K84" s="7"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="2:12" ht="30" customHeight="1">
+    <row r="85" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -1753,7 +1818,7 @@
       <c r="K85" s="7"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="2:12" ht="30" customHeight="1">
+    <row r="86" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -1766,7 +1831,7 @@
       <c r="K86" s="7"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="2:12" ht="30" customHeight="1">
+    <row r="87" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -1779,7 +1844,7 @@
       <c r="K87" s="7"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="2:12" ht="30" customHeight="1">
+    <row r="88" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -1792,7 +1857,7 @@
       <c r="K88" s="7"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="2:12" ht="30" customHeight="1">
+    <row r="89" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -1805,7 +1870,7 @@
       <c r="K89" s="7"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="2:12" ht="30" customHeight="1">
+    <row r="90" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -1818,7 +1883,7 @@
       <c r="K90" s="7"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="2:12" ht="30" customHeight="1">
+    <row r="91" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -1831,7 +1896,7 @@
       <c r="K91" s="7"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="2:12" ht="30" customHeight="1">
+    <row r="92" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -1844,7 +1909,7 @@
       <c r="K92" s="7"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="2:12" ht="30" customHeight="1">
+    <row r="93" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -1857,7 +1922,7 @@
       <c r="K93" s="7"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="2:12" ht="30" customHeight="1">
+    <row r="94" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -1870,7 +1935,7 @@
       <c r="K94" s="7"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="2:12" ht="30" customHeight="1">
+    <row r="95" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -1883,7 +1948,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="2:12" ht="30" customHeight="1">
+    <row r="96" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -1896,7 +1961,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="2:12" ht="30" customHeight="1">
+    <row r="97" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -1909,7 +1974,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="2:12" ht="30" customHeight="1">
+    <row r="98" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -1922,7 +1987,7 @@
       <c r="K98" s="7"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="2:12" ht="30" customHeight="1">
+    <row r="99" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -1935,7 +2000,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="2:12" ht="30" customHeight="1">
+    <row r="100" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -1948,7 +2013,7 @@
       <c r="K100" s="7"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="2:12" ht="30" customHeight="1">
+    <row r="101" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -1961,7 +2026,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="2:12" ht="30" customHeight="1">
+    <row r="102" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -1974,7 +2039,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="2:12" ht="30" customHeight="1">
+    <row r="103" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -1987,7 +2052,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="2:12" ht="30" customHeight="1">
+    <row r="104" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2000,7 +2065,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="2:12" ht="30" customHeight="1">
+    <row r="105" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2013,7 +2078,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="2:12" ht="30" customHeight="1">
+    <row r="106" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2026,7 +2091,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="2:12" ht="30" customHeight="1">
+    <row r="107" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2039,7 +2104,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="2:12" ht="30" customHeight="1">
+    <row r="108" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2052,7 +2117,7 @@
       <c r="K108" s="7"/>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="2:12" ht="30" customHeight="1">
+    <row r="109" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2065,7 +2130,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="2:12" ht="30" customHeight="1">
+    <row r="110" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2078,7 +2143,7 @@
       <c r="K110" s="7"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="2:12" ht="30" customHeight="1">
+    <row r="111" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2091,7 +2156,7 @@
       <c r="K111" s="7"/>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="2:12" ht="30" customHeight="1">
+    <row r="112" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2104,7 +2169,7 @@
       <c r="K112" s="7"/>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="2:12" ht="30" customHeight="1">
+    <row r="113" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2117,7 +2182,7 @@
       <c r="K113" s="7"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="2:12" ht="30" customHeight="1">
+    <row r="114" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2130,7 +2195,7 @@
       <c r="K114" s="7"/>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="2:12" ht="30" customHeight="1">
+    <row r="115" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2143,7 +2208,7 @@
       <c r="K115" s="7"/>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="2:12" ht="30" customHeight="1">
+    <row r="116" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2156,7 +2221,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="2:12" ht="30" customHeight="1">
+    <row r="117" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2169,7 +2234,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="2:12" ht="30" customHeight="1">
+    <row r="118" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2182,7 +2247,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="2:12" ht="30" customHeight="1">
+    <row r="119" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2195,7 +2260,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="2:12" ht="30" customHeight="1">
+    <row r="120" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2208,7 +2273,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="2:12" ht="30" customHeight="1">
+    <row r="121" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2221,7 +2286,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="2:12" ht="30" customHeight="1">
+    <row r="122" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2234,7 +2299,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="2:12" ht="30" customHeight="1">
+    <row r="123" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2247,7 +2312,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="2:12" ht="30" customHeight="1">
+    <row r="124" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2260,7 +2325,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="2:12" ht="30" customHeight="1">
+    <row r="125" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2273,7 +2338,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="2:12" ht="30" customHeight="1">
+    <row r="126" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2286,7 +2351,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="2:12" ht="30" customHeight="1">
+    <row r="127" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2299,7 +2364,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="2:12" ht="30" customHeight="1">
+    <row r="128" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2312,7 +2377,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="2:12" ht="30" customHeight="1">
+    <row r="129" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2325,7 +2390,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="2:12" ht="30" customHeight="1">
+    <row r="130" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -2338,7 +2403,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="2:12" ht="30" customHeight="1">
+    <row r="131" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2351,7 +2416,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="2:12" ht="30" customHeight="1">
+    <row r="132" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -2364,7 +2429,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="2:12" ht="30" customHeight="1">
+    <row r="133" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2377,7 +2442,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="2:12" ht="30" customHeight="1">
+    <row r="134" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -2390,7 +2455,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="2:12" ht="30" customHeight="1">
+    <row r="135" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -2403,7 +2468,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="2:12" ht="30" customHeight="1">
+    <row r="136" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -2416,7 +2481,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="2:12" ht="30" customHeight="1">
+    <row r="137" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -2429,7 +2494,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="2:12" ht="30" customHeight="1">
+    <row r="138" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -2442,7 +2507,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="2:12" ht="30" customHeight="1">
+    <row r="139" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -2455,7 +2520,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="2:12" ht="30" customHeight="1">
+    <row r="140" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -2468,7 +2533,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="2:12" ht="30" customHeight="1">
+    <row r="141" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -2481,7 +2546,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="2:12" ht="30" customHeight="1">
+    <row r="142" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -2494,7 +2559,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="2:12" ht="30" customHeight="1">
+    <row r="143" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -2507,7 +2572,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="2:12" ht="30" customHeight="1">
+    <row r="144" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -2520,91 +2585,91 @@
       <c r="K144" s="7"/>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="2:12" ht="30" customHeight="1">
+    <row r="145" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="2:12" ht="30" customHeight="1">
+    <row r="146" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="2:12" ht="30" customHeight="1">
+    <row r="147" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="2:12" ht="30" customHeight="1">
+    <row r="148" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="2:12" ht="30" customHeight="1">
+    <row r="149" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="2:12" ht="30" customHeight="1">
+    <row r="150" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="2:12" ht="30" customHeight="1">
+    <row r="151" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="2:12" ht="30" customHeight="1">
+    <row r="152" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="2:12" ht="30" customHeight="1">
+    <row r="153" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="2:12" ht="30" customHeight="1">
+    <row r="154" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="2:12" ht="30" customHeight="1">
+    <row r="155" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="2:12" ht="30" customHeight="1">
+    <row r="156" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="2:12" ht="30" customHeight="1">
+    <row r="157" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="2:12" ht="30" customHeight="1">
+    <row r="158" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="2:12" ht="30" customHeight="1">
+    <row r="159" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="2:12" ht="30" customHeight="1">
+    <row r="160" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1">
+    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1">
+    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
     </row>
   </sheetData>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Work_ปี3\งานteam4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83CB255-6CA9-4488-A68B-D2E418886581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC9B769-367D-4DE7-9CEF-830A497540BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="3285" yWindow="3450" windowWidth="21600" windowHeight="11835" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Version</t>
   </si>
@@ -103,16 +95,31 @@
   <si>
     <t>ปรีชญา กล้ายุทธ</t>
   </si>
+  <si>
+    <t>Customer_show</t>
+  </si>
+  <si>
+    <t>Da_cdms_customer</t>
+  </si>
+  <si>
+    <t>M_cdms_customer</t>
+  </si>
+  <si>
+    <t>v_customer_showlist</t>
+  </si>
+  <si>
+    <t>ณัฐนันท์ ทัศวรรณ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -121,7 +128,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +236,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,7 +261,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -565,70 +575,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:12" ht="50.45" customHeight="1">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="3" spans="2:12" ht="44.45" customHeight="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="2:12" ht="30" customHeight="1">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -655,8 +665,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+    <row r="5" spans="2:12" ht="30" customHeight="1">
+      <c r="B5" s="15"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
         <v>44381</v>
@@ -670,7 +680,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="30" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -697,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="30" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
@@ -726,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="30" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
@@ -753,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="30" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
@@ -782,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="30" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
@@ -805,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="30" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
@@ -830,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="30" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
@@ -855,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="30" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
@@ -882,111 +892,165 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="30" customHeight="1">
+      <c r="B14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44379</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12">
+        <v>2</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12">
+        <f>SUM(F14:K14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="30" customHeight="1">
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44410</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12">
+        <f>SUM(F15:K15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="30" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>44410</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12">
+        <f>SUM(F16:K16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="30" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>44410</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
+        <v>3</v>
+      </c>
+      <c r="L17" s="12">
+        <f>SUM(F17:K17)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="30" customHeight="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" ht="30" customHeight="1">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" ht="30" customHeight="1">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" ht="30" customHeight="1">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="2:12" ht="30" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -999,7 +1063,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="30" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1012,7 +1076,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="30" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1025,7 +1089,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="30" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1038,7 +1102,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="30" customHeight="1">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1051,7 +1115,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="30" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1064,7 +1128,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="30" customHeight="1">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1077,7 +1141,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="30" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1090,7 +1154,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="30" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1103,7 +1167,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="30" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1116,7 +1180,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="30" customHeight="1">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1129,7 +1193,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="30" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1142,7 +1206,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="30" customHeight="1">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1155,7 +1219,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="30" customHeight="1">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1168,7 +1232,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="30" customHeight="1">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1181,7 +1245,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="30" customHeight="1">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1194,7 +1258,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="30" customHeight="1">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1207,7 +1271,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="30" customHeight="1">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1220,7 +1284,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="30" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1233,7 +1297,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="30" customHeight="1">
       <c r="B41" s="6"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1246,7 +1310,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="30" customHeight="1">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1259,7 +1323,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="30" customHeight="1">
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1272,7 +1336,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="30" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1285,7 +1349,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="30" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1298,7 +1362,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="30" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1311,7 +1375,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="30" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1324,7 +1388,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="30" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1337,7 +1401,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="30" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1350,7 +1414,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="30" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1363,7 +1427,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="30" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1376,7 +1440,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="30" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1389,7 +1453,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="30" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1402,7 +1466,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="30" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1415,7 +1479,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="30" customHeight="1">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1428,7 +1492,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="30" customHeight="1">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1441,7 +1505,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="30" customHeight="1">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1454,7 +1518,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="30" customHeight="1">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1467,7 +1531,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="30" customHeight="1">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1480,7 +1544,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="30" customHeight="1">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1493,7 +1557,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="30" customHeight="1">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1506,7 +1570,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="30" customHeight="1">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1519,7 +1583,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="30" customHeight="1">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1532,7 +1596,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="30" customHeight="1">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1545,7 +1609,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="30" customHeight="1">
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1558,7 +1622,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="30" customHeight="1">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1571,7 +1635,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="30" customHeight="1">
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1584,7 +1648,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="30" customHeight="1">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1597,7 +1661,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="30" customHeight="1">
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1610,7 +1674,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="30" customHeight="1">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1623,7 +1687,7 @@
       <c r="K70" s="7"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" ht="30" customHeight="1">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -1636,7 +1700,7 @@
       <c r="K71" s="7"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="30" customHeight="1">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1649,7 +1713,7 @@
       <c r="K72" s="7"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="30" customHeight="1">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1662,7 +1726,7 @@
       <c r="K73" s="7"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="30" customHeight="1">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1675,7 +1739,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" ht="30" customHeight="1">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1688,7 +1752,7 @@
       <c r="K75" s="7"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="30" customHeight="1">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1701,7 +1765,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="30" customHeight="1">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1714,7 +1778,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="30" customHeight="1">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -1727,7 +1791,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="30" customHeight="1">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1740,7 +1804,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="30" customHeight="1">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -1753,7 +1817,7 @@
       <c r="K80" s="7"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="30" customHeight="1">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -1766,7 +1830,7 @@
       <c r="K81" s="7"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="30" customHeight="1">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -1779,7 +1843,7 @@
       <c r="K82" s="7"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="30" customHeight="1">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -1792,7 +1856,7 @@
       <c r="K83" s="7"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="30" customHeight="1">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -1805,7 +1869,7 @@
       <c r="K84" s="7"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="30" customHeight="1">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -1818,7 +1882,7 @@
       <c r="K85" s="7"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="30" customHeight="1">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -1831,7 +1895,7 @@
       <c r="K86" s="7"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="30" customHeight="1">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -1844,7 +1908,7 @@
       <c r="K87" s="7"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" ht="30" customHeight="1">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -1857,7 +1921,7 @@
       <c r="K88" s="7"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="30" customHeight="1">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -1870,7 +1934,7 @@
       <c r="K89" s="7"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="30" customHeight="1">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -1883,7 +1947,7 @@
       <c r="K90" s="7"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="30" customHeight="1">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -1896,7 +1960,7 @@
       <c r="K91" s="7"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" ht="30" customHeight="1">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -1909,7 +1973,7 @@
       <c r="K92" s="7"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="30" customHeight="1">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -1922,7 +1986,7 @@
       <c r="K93" s="7"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="30" customHeight="1">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -1935,7 +1999,7 @@
       <c r="K94" s="7"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="30" customHeight="1">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -1948,7 +2012,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="30" customHeight="1">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -1961,7 +2025,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="30" customHeight="1">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -1974,7 +2038,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="30" customHeight="1">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -1987,7 +2051,7 @@
       <c r="K98" s="7"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="30" customHeight="1">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -2000,7 +2064,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" ht="30" customHeight="1">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -2013,7 +2077,7 @@
       <c r="K100" s="7"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="30" customHeight="1">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -2026,7 +2090,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="30" customHeight="1">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -2039,7 +2103,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="30" customHeight="1">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -2052,7 +2116,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="30" customHeight="1">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2065,7 +2129,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="30" customHeight="1">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2078,7 +2142,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="30" customHeight="1">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2091,7 +2155,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="30" customHeight="1">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2104,7 +2168,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="30" customHeight="1">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2117,7 +2181,7 @@
       <c r="K108" s="7"/>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="30" customHeight="1">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2130,7 +2194,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="30" customHeight="1">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2143,7 +2207,7 @@
       <c r="K110" s="7"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="30" customHeight="1">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2156,7 +2220,7 @@
       <c r="K111" s="7"/>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="30" customHeight="1">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2169,7 +2233,7 @@
       <c r="K112" s="7"/>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="30" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2182,7 +2246,7 @@
       <c r="K113" s="7"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="30" customHeight="1">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2195,7 +2259,7 @@
       <c r="K114" s="7"/>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="30" customHeight="1">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2208,7 +2272,7 @@
       <c r="K115" s="7"/>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="30" customHeight="1">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2221,7 +2285,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="30" customHeight="1">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2234,7 +2298,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="30" customHeight="1">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2247,7 +2311,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="30" customHeight="1">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2260,7 +2324,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" ht="30" customHeight="1">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2273,7 +2337,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" ht="30" customHeight="1">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2286,7 +2350,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" ht="30" customHeight="1">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2299,7 +2363,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" ht="30" customHeight="1">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2312,7 +2376,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" ht="30" customHeight="1">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2325,7 +2389,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" ht="30" customHeight="1">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2338,7 +2402,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" ht="30" customHeight="1">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2351,7 +2415,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="30" customHeight="1">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2364,7 +2428,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="30" customHeight="1">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2377,7 +2441,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" ht="30" customHeight="1">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2390,7 +2454,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" ht="30" customHeight="1">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -2403,7 +2467,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" ht="30" customHeight="1">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2416,7 +2480,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" ht="30" customHeight="1">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -2429,7 +2493,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" ht="30" customHeight="1">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2442,7 +2506,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" ht="30" customHeight="1">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -2455,7 +2519,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" ht="30" customHeight="1">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -2468,7 +2532,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" ht="30" customHeight="1">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -2481,7 +2545,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" ht="30" customHeight="1">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -2494,7 +2558,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" ht="30" customHeight="1">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -2507,7 +2571,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" ht="30" customHeight="1">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -2520,7 +2584,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" ht="30" customHeight="1">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -2533,7 +2597,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" ht="30" customHeight="1">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -2546,7 +2610,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" ht="30" customHeight="1">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -2559,7 +2623,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" ht="30" customHeight="1">
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -2572,7 +2636,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" ht="30" customHeight="1">
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -2585,91 +2649,91 @@
       <c r="K144" s="7"/>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="30" customHeight="1">
       <c r="B145" s="3"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="30" customHeight="1">
       <c r="B146" s="3"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" ht="30" customHeight="1">
       <c r="B147" s="3"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="30" customHeight="1">
       <c r="B148" s="3"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="30" customHeight="1">
       <c r="B149" s="3"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" ht="30" customHeight="1">
       <c r="B150" s="3"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" ht="30" customHeight="1">
       <c r="B151" s="3"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" ht="30" customHeight="1">
       <c r="B152" s="3"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" ht="30" customHeight="1">
       <c r="B153" s="3"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" ht="30" customHeight="1">
       <c r="B154" s="3"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" ht="30" customHeight="1">
       <c r="B155" s="3"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="30" customHeight="1">
       <c r="B156" s="3"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="30" customHeight="1">
       <c r="B157" s="3"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="30" customHeight="1">
       <c r="B158" s="3"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="30" customHeight="1">
       <c r="B159" s="3"/>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="30" customHeight="1">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="30" customHeight="1">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="30" customHeight="1">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="30" customHeight="1">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="30" customHeight="1">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="30" customHeight="1">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="30" customHeight="1">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="30" customHeight="1">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="30" customHeight="1">
       <c r="B168" s="3"/>
     </row>
   </sheetData>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8a939cbeb7421a6/Desktop/TEAM 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC9B769-367D-4DE7-9CEF-830A497540BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{550D14FE-5F7C-466A-AC25-ACBFC035A2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3450" windowWidth="21600" windowHeight="11835" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Version</t>
   </si>
@@ -109,6 +118,18 @@
   </si>
   <si>
     <t>ณัฐนันท์ ทัศวรรณ</t>
+  </si>
+  <si>
+    <t>v_agent_edit</t>
+  </si>
+  <si>
+    <t>v_agent_input</t>
+  </si>
+  <si>
+    <t>Agent_input</t>
+  </si>
+  <si>
+    <t>Agent_edit</t>
   </si>
 </sst>
 </file>
@@ -200,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +254,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -575,70 +599,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="50.45" customHeight="1">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:12" ht="50.4" customHeight="1">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="44.45" customHeight="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+    <row r="3" spans="2:12" ht="44.4" customHeight="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="2:12" ht="30" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -666,7 +690,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1">
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
         <v>44381</v>
@@ -999,86 +1023,154 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="B18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44418</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:12" ht="30" customHeight="1">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>44418</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44418</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>44418</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44418</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="2:12" ht="30" customHeight="1">
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44418</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="2:12" ht="30" customHeight="1">
       <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="4"/>
       <c r="E24" s="8"/>
       <c r="F24" s="4"/>
@@ -1091,7 +1183,7 @@
     </row>
     <row r="25" spans="2:12" ht="30" customHeight="1">
       <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="4"/>
       <c r="E25" s="8"/>
       <c r="F25" s="4"/>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8a939cbeb7421a6/Desktop/TEAM 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{550D14FE-5F7C-466A-AC25-ACBFC035A2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C83F1C-403C-41D5-A993-248AEAEF6BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Version</t>
   </si>
@@ -130,26 +130,97 @@
   </si>
   <si>
     <t>Agent_edit</t>
+  </si>
+  <si>
+    <t>Car_show</t>
+  </si>
+  <si>
+    <t>กิตติพศ</t>
+  </si>
+  <si>
+    <t>Da_cdms_car</t>
+  </si>
+  <si>
+    <t>M_cdms_car</t>
+  </si>
+  <si>
+    <t>v_car_showlist</t>
+  </si>
+  <si>
+    <t>v_driver_showlist.php</t>
+  </si>
+  <si>
+    <t>วิรัตน์</t>
+  </si>
+  <si>
+    <t>Driver_show.php</t>
+  </si>
+  <si>
+    <t>M_cdms_driver.php</t>
+  </si>
+  <si>
+    <t>Da_cdms_driver.php</t>
+  </si>
+  <si>
+    <t>v_container_showlist.php</t>
+  </si>
+  <si>
+    <t>ธนาธิป,วริศรา</t>
+  </si>
+  <si>
+    <t>Container_show.php</t>
+  </si>
+  <si>
+    <t>M_cdms_container.php</t>
+  </si>
+  <si>
+    <t>Da_cdms_container.php</t>
+  </si>
+  <si>
+    <t>Da_cdms_car.php</t>
+  </si>
+  <si>
+    <t>Car_input.php</t>
+  </si>
+  <si>
+    <t>v_car_input.php</t>
+  </si>
+  <si>
+    <t>Driver_input.php</t>
+  </si>
+  <si>
+    <t>Driver_edit.php</t>
+  </si>
+  <si>
+    <t>v_driver_input.php</t>
+  </si>
+  <si>
+    <t>v_driver_update.php</t>
+  </si>
+  <si>
+    <t>การแสดงผลผิด</t>
+  </si>
+  <si>
+    <t>Logic ผิด</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -271,9 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,9 +351,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -301,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,71 +668,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
-  <dimension ref="B2:L168"/>
+  <dimension ref="B2:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="26.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="1"/>
+    <col min="4" max="4" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.09765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="50.4" customHeight="1">
-      <c r="B2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="2:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="44.4" customHeight="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1">
+    <row r="3" spans="2:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
@@ -672,39 +751,43 @@
         <v>44379</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4">
-        <f>SUM(F4:K4)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <f>SUM(G4:M4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1">
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
         <v>44381</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="2:12" ht="30" customHeight="1">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -717,21 +800,23 @@
       <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="30" customHeight="1">
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
@@ -744,23 +829,25 @@
       <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
         <v>2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="N7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1">
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
@@ -773,21 +860,23 @@
       <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1">
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
@@ -800,23 +889,25 @@
       <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1">
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
@@ -829,17 +920,19 @@
       <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="10">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1">
+    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
@@ -852,19 +945,21 @@
       <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
@@ -877,19 +972,21 @@
       <c r="E12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <v>4</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="10">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1">
+    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
@@ -902,21 +999,23 @@
       <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="10">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10">
         <v>3</v>
       </c>
-      <c r="L13" s="10">
+      <c r="N13" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1">
+    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
@@ -929,20 +1028,22 @@
       <c r="E14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="12">
-        <v>2</v>
-      </c>
+      <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12">
-        <f>SUM(F14:K14)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12">
+        <f>SUM(G14:M14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
@@ -955,22 +1056,24 @@
       <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12">
-        <v>1</v>
-      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="12">
-        <f>SUM(F15:K15)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <f>SUM(G15:M15)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
@@ -983,20 +1086,22 @@
       <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
+      <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12">
-        <f>SUM(F16:K16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12">
+        <f>SUM(G16:M16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
@@ -1009,54 +1114,63 @@
       <c r="E17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12">
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
         <v>3</v>
       </c>
-      <c r="L17" s="12">
-        <f>SUM(F17:K17)</f>
+      <c r="N17" s="12">
+        <f>SUM(G17:M17)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="30" customHeight="1">
+    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="5">
-        <v>44418</v>
+        <v>44410</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="30" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13">
+        <f>SUM(F18:M18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="5">
-        <v>44418</v>
+        <v>44410</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -1065,21 +1179,26 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13">
+        <f>SUM(F19:M19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5">
-        <v>44418</v>
+        <v>44410</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -1088,21 +1207,26 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="30" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13">
+        <f>SUM(F20:M20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="5">
-        <v>44418</v>
+        <v>44410</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -1110,663 +1234,952 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="13">
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13">
+        <f>SUM(F21:M21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="30" customHeight="1">
+    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13">
+        <f>SUM(F22:M22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13">
+        <f>SUM(F23:M23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13">
+        <f>SUM(F24:M24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13">
+        <f>SUM(F25:M25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13">
+        <f>SUM(F32:M32)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13">
+        <v>3</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13">
+        <f>SUM(F33:M33)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13">
+        <v>2</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13">
+        <v>1</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13">
+        <f>SUM(F34:M34)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13">
+        <v>1</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13">
+        <f>SUM(F35:M35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13">
+        <f>SUM(F36:M36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="5">
+        <v>242744</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13">
+        <f>SUM(F37:M37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5">
-        <v>44418</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13">
         <v>2</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
+      <c r="M42" s="13"/>
+      <c r="N42" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="30" customHeight="1">
-      <c r="B23" s="11" t="s">
+    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5">
-        <v>44418</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="5">
+        <v>242745</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4">
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13">
+        <v>1</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13">
+        <v>1</v>
+      </c>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="30" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" ht="30" customHeight="1">
-      <c r="B25" s="6"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="2:12" ht="30" customHeight="1">
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" ht="30" customHeight="1">
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="2:12" ht="30" customHeight="1">
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1">
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1">
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" ht="30" customHeight="1">
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="2:12" ht="30" customHeight="1">
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="2:12" ht="30" customHeight="1">
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1">
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="2:12" ht="30" customHeight="1">
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1">
-      <c r="B36" s="6"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1">
-      <c r="B37" s="6"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1">
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1">
-      <c r="B39" s="6"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="2:12" ht="30" customHeight="1">
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1">
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="2:12" ht="30" customHeight="1">
-      <c r="B42" s="6"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="2:12" ht="30" customHeight="1">
-      <c r="B43" s="6"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="2:12" ht="30" customHeight="1">
+    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="2:12" ht="30" customHeight="1">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="2:12" ht="30" customHeight="1">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="2:12" ht="30" customHeight="1">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="2:12" ht="30" customHeight="1">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="2:12" ht="30" customHeight="1">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="2:12" ht="30" customHeight="1">
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="2:12" ht="30" customHeight="1">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="2:12" ht="30" customHeight="1">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="2:12" ht="30" customHeight="1">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="2:12" ht="30" customHeight="1">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="2:12" ht="30" customHeight="1">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="2:12" ht="30" customHeight="1">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="2:12" ht="30" customHeight="1">
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1">
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1">
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1">
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1">
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1">
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1">
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1">
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="2:12" ht="30" customHeight="1">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="2:12" ht="30" customHeight="1">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="2:12" ht="30" customHeight="1">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="2:12" ht="30" customHeight="1">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="2:12" ht="30" customHeight="1">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="2:12" ht="30" customHeight="1">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -1777,9 +2190,11 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="2:12" ht="30" customHeight="1">
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -1790,9 +2205,11 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="2:12" ht="30" customHeight="1">
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -1803,9 +2220,11 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="2:12" ht="30" customHeight="1">
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -1816,9 +2235,11 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="2:12" ht="30" customHeight="1">
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -1829,9 +2250,11 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="2:12" ht="30" customHeight="1">
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -1842,9 +2265,11 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="2:12" ht="30" customHeight="1">
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -1855,9 +2280,11 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="2:12" ht="30" customHeight="1">
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -1868,9 +2295,11 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="2:12" ht="30" customHeight="1">
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -1881,9 +2310,11 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="2:12" ht="30" customHeight="1">
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1894,9 +2325,11 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="2:12" ht="30" customHeight="1">
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -1907,9 +2340,11 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="2:12" ht="30" customHeight="1">
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -1920,9 +2355,11 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="2:12" ht="30" customHeight="1">
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -1933,9 +2370,11 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="2:12" ht="30" customHeight="1">
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -1946,9 +2385,11 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="2:12" ht="30" customHeight="1">
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -1959,9 +2400,11 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="2:12" ht="30" customHeight="1">
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -1972,9 +2415,11 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="2:12" ht="30" customHeight="1">
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -1985,9 +2430,11 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="2:12" ht="30" customHeight="1">
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -1998,9 +2445,11 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="2:12" ht="30" customHeight="1">
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2011,9 +2460,11 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
-      <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="2:12" ht="30" customHeight="1">
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2024,9 +2475,11 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="2:12" ht="30" customHeight="1">
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2037,9 +2490,11 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="2:12" ht="30" customHeight="1">
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2050,9 +2505,11 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="2:12" ht="30" customHeight="1">
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2063,9 +2520,11 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="2:12" ht="30" customHeight="1">
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2076,9 +2535,11 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="2:12" ht="30" customHeight="1">
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -2089,9 +2550,11 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="2:12" ht="30" customHeight="1">
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -2102,9 +2565,11 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="2:12" ht="30" customHeight="1">
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -2115,9 +2580,11 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="2:12" ht="30" customHeight="1">
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -2128,9 +2595,11 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="2:12" ht="30" customHeight="1">
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -2141,9 +2610,11 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="2:12" ht="30" customHeight="1">
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -2154,9 +2625,11 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="2:12" ht="30" customHeight="1">
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -2167,9 +2640,11 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="2:12" ht="30" customHeight="1">
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -2180,9 +2655,11 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="2:12" ht="30" customHeight="1">
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -2193,9 +2670,11 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="2:12" ht="30" customHeight="1">
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -2206,9 +2685,11 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="2:12" ht="30" customHeight="1">
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2219,9 +2700,11 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="2:12" ht="30" customHeight="1">
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2232,9 +2715,11 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="2:12" ht="30" customHeight="1">
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2245,9 +2730,11 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="2:12" ht="30" customHeight="1">
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2258,9 +2745,11 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="2:12" ht="30" customHeight="1">
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2271,9 +2760,11 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="2:12" ht="30" customHeight="1">
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2284,9 +2775,11 @@
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="2:12" ht="30" customHeight="1">
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2297,9 +2790,11 @@
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="2:12" ht="30" customHeight="1">
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2310,9 +2805,11 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="2:12" ht="30" customHeight="1">
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2323,9 +2820,11 @@
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="2:12" ht="30" customHeight="1">
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2336,9 +2835,11 @@
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="2:12" ht="30" customHeight="1">
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2349,9 +2850,11 @@
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="2:12" ht="30" customHeight="1">
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2362,9 +2865,11 @@
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="2:12" ht="30" customHeight="1">
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2375,9 +2880,11 @@
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="2:12" ht="30" customHeight="1">
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2388,9 +2895,11 @@
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
-      <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="2:12" ht="30" customHeight="1">
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2401,9 +2910,11 @@
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
-      <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="2:12" ht="30" customHeight="1">
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2414,9 +2925,11 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
-      <c r="L119" s="4"/>
-    </row>
-    <row r="120" spans="2:12" ht="30" customHeight="1">
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2427,9 +2940,11 @@
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
-      <c r="L120" s="4"/>
-    </row>
-    <row r="121" spans="2:12" ht="30" customHeight="1">
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2440,9 +2955,11 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
-      <c r="L121" s="4"/>
-    </row>
-    <row r="122" spans="2:12" ht="30" customHeight="1">
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2453,9 +2970,11 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
-      <c r="L122" s="4"/>
-    </row>
-    <row r="123" spans="2:12" ht="30" customHeight="1">
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2466,9 +2985,11 @@
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
-      <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="2:12" ht="30" customHeight="1">
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2479,9 +3000,11 @@
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
-      <c r="L124" s="4"/>
-    </row>
-    <row r="125" spans="2:12" ht="30" customHeight="1">
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="4"/>
+    </row>
+    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2492,9 +3015,11 @@
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
-      <c r="L125" s="4"/>
-    </row>
-    <row r="126" spans="2:12" ht="30" customHeight="1">
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2505,9 +3030,11 @@
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
-      <c r="L126" s="4"/>
-    </row>
-    <row r="127" spans="2:12" ht="30" customHeight="1">
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="4"/>
+    </row>
+    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2518,9 +3045,11 @@
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
-      <c r="L127" s="4"/>
-    </row>
-    <row r="128" spans="2:12" ht="30" customHeight="1">
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="4"/>
+    </row>
+    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2531,9 +3060,11 @@
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
-      <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="2:12" ht="30" customHeight="1">
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="4"/>
+    </row>
+    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2544,9 +3075,11 @@
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
-      <c r="L129" s="4"/>
-    </row>
-    <row r="130" spans="2:12" ht="30" customHeight="1">
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -2557,9 +3090,11 @@
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
-      <c r="L130" s="4"/>
-    </row>
-    <row r="131" spans="2:12" ht="30" customHeight="1">
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -2570,9 +3105,11 @@
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
-      <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="2:12" ht="30" customHeight="1">
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -2583,9 +3120,11 @@
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
-      <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="2:12" ht="30" customHeight="1">
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -2596,9 +3135,11 @@
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
-      <c r="L133" s="4"/>
-    </row>
-    <row r="134" spans="2:12" ht="30" customHeight="1">
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -2609,9 +3150,11 @@
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
-      <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="2:12" ht="30" customHeight="1">
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -2622,9 +3165,11 @@
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
-      <c r="L135" s="4"/>
-    </row>
-    <row r="136" spans="2:12" ht="30" customHeight="1">
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -2635,9 +3180,11 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
-      <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="2:12" ht="30" customHeight="1">
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="4"/>
+    </row>
+    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -2648,9 +3195,11 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
-      <c r="L137" s="4"/>
-    </row>
-    <row r="138" spans="2:12" ht="30" customHeight="1">
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="4"/>
+    </row>
+    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -2661,187 +3210,113 @@
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
-      <c r="L138" s="4"/>
-    </row>
-    <row r="139" spans="2:12" ht="30" customHeight="1">
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="4"/>
-    </row>
-    <row r="140" spans="2:12" ht="30" customHeight="1">
-      <c r="B140" s="6"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="4"/>
-    </row>
-    <row r="141" spans="2:12" ht="30" customHeight="1">
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="4"/>
-    </row>
-    <row r="142" spans="2:12" ht="30" customHeight="1">
-      <c r="B142" s="6"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="4"/>
-    </row>
-    <row r="143" spans="2:12" ht="30" customHeight="1">
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="4"/>
-    </row>
-    <row r="144" spans="2:12" ht="30" customHeight="1">
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="4"/>
-    </row>
-    <row r="145" spans="2:12" ht="30" customHeight="1">
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="4"/>
+    </row>
+    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+      <c r="N139" s="2"/>
+    </row>
+    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+      <c r="N140" s="2"/>
+    </row>
+    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+      <c r="N142" s="2"/>
+    </row>
+    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="3"/>
+      <c r="N143" s="2"/>
+    </row>
+    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="3"/>
+      <c r="N144" s="2"/>
+    </row>
+    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
-      <c r="L145" s="2"/>
-    </row>
-    <row r="146" spans="2:12" ht="30" customHeight="1">
+      <c r="N145" s="2"/>
+    </row>
+    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
-      <c r="L146" s="2"/>
-    </row>
-    <row r="147" spans="2:12" ht="30" customHeight="1">
+      <c r="N146" s="2"/>
+    </row>
+    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
-      <c r="L147" s="2"/>
-    </row>
-    <row r="148" spans="2:12" ht="30" customHeight="1">
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
-      <c r="L148" s="2"/>
-    </row>
-    <row r="149" spans="2:12" ht="30" customHeight="1">
+      <c r="N148" s="2"/>
+    </row>
+    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
-      <c r="L149" s="2"/>
-    </row>
-    <row r="150" spans="2:12" ht="30" customHeight="1">
+      <c r="N149" s="2"/>
+    </row>
+    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
-      <c r="L150" s="2"/>
-    </row>
-    <row r="151" spans="2:12" ht="30" customHeight="1">
+      <c r="N150" s="2"/>
+    </row>
+    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
-      <c r="L151" s="2"/>
-    </row>
-    <row r="152" spans="2:12" ht="30" customHeight="1">
+      <c r="N151" s="2"/>
+    </row>
+    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
-      <c r="L152" s="2"/>
-    </row>
-    <row r="153" spans="2:12" ht="30" customHeight="1">
+      <c r="N152" s="2"/>
+    </row>
+    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
-      <c r="L153" s="2"/>
-    </row>
-    <row r="154" spans="2:12" ht="30" customHeight="1">
+      <c r="N153" s="2"/>
+    </row>
+    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
-      <c r="L154" s="2"/>
-    </row>
-    <row r="155" spans="2:12" ht="30" customHeight="1">
+    </row>
+    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
-      <c r="L155" s="2"/>
-    </row>
-    <row r="156" spans="2:12" ht="30" customHeight="1">
+    </row>
+    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
-      <c r="L156" s="2"/>
-    </row>
-    <row r="157" spans="2:12" ht="30" customHeight="1">
+    </row>
+    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
-      <c r="L157" s="2"/>
-    </row>
-    <row r="158" spans="2:12" ht="30" customHeight="1">
+    </row>
+    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
-      <c r="L158" s="2"/>
-    </row>
-    <row r="159" spans="2:12" ht="30" customHeight="1">
+    </row>
+    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
-      <c r="L159" s="2"/>
-    </row>
-    <row r="160" spans="2:12" ht="30" customHeight="1">
+    </row>
+    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1">
-      <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1">
-      <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1">
-      <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1">
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="2:2" ht="30" customHeight="1">
-      <c r="B167" s="3"/>
-    </row>
-    <row r="168" spans="2:2" ht="30" customHeight="1">
-      <c r="B168" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
+  <mergeCells count="14">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบโค้ด.xlsx
@@ -5,29 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C83F1C-403C-41D5-A993-248AEAEF6BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3200D7-6F95-47B5-8F13-153DC215F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -208,11 +199,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -220,7 +211,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -336,6 +327,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,9 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,78 +661,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="1"/>
-    <col min="2" max="2" width="26.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" style="1"/>
-    <col min="4" max="4" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.09765625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="26.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="2:14" ht="50.4" customHeight="1">
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+    <row r="3" spans="2:14" ht="44.4" customHeight="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:14" ht="30" customHeight="1">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -770,8 +761,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
+    <row r="5" spans="2:14" ht="30" customHeight="1">
+      <c r="B5" s="17"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
         <v>44381</v>
@@ -787,7 +778,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="30" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -816,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="30" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
@@ -847,7 +838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="30" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
@@ -876,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="30" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
@@ -907,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="30" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
@@ -932,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="30" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
@@ -959,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="30" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
@@ -986,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="30" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
@@ -1015,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="30" customHeight="1">
       <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="30" customHeight="1">
       <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
@@ -1073,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="30" customHeight="1">
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="30" customHeight="1">
       <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="30" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
@@ -1155,11 +1146,11 @@
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13">
-        <f>SUM(F18:M18)</f>
+        <f t="shared" ref="N18:N25" si="0">SUM(F18:M18)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="30" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
@@ -1183,11 +1174,11 @@
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13">
-        <f>SUM(F19:M19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="30" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
@@ -1211,11 +1202,11 @@
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13">
-        <f>SUM(F20:M20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="30" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>36</v>
       </c>
@@ -1237,11 +1228,11 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13">
-        <f>SUM(F21:M21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="30" customHeight="1">
       <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
@@ -1263,11 +1254,11 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13">
-        <f>SUM(F22:M22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="30" customHeight="1">
       <c r="B23" s="11" t="s">
         <v>39</v>
       </c>
@@ -1289,11 +1280,11 @@
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="13">
-        <f>SUM(F23:M23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="30" customHeight="1">
       <c r="B24" s="11" t="s">
         <v>40</v>
       </c>
@@ -1315,11 +1306,11 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13">
-        <f>SUM(F24:M24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="30" customHeight="1">
       <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
@@ -1341,11 +1332,11 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13">
-        <f>SUM(F25:M25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="30" customHeight="1">
       <c r="B26" s="11" t="s">
         <v>42</v>
       </c>
@@ -1368,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="30" customHeight="1">
       <c r="B27" s="11" t="s">
         <v>44</v>
       </c>
@@ -1391,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="30" customHeight="1">
       <c r="B28" s="11" t="s">
         <v>45</v>
       </c>
@@ -1414,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="30" customHeight="1">
       <c r="B29" s="11" t="s">
         <v>46</v>
       </c>
@@ -1437,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="30" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>47</v>
       </c>
@@ -1460,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="30" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
@@ -1485,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="30" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>49</v>
       </c>
@@ -1507,11 +1498,11 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13">
-        <f>SUM(F32:M32)</f>
+        <f t="shared" ref="N32:N37" si="1">SUM(F32:M32)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="30" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>50</v>
       </c>
@@ -1533,11 +1524,11 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13">
-        <f>SUM(F33:M33)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="30" customHeight="1">
       <c r="B34" s="11" t="s">
         <v>41</v>
       </c>
@@ -1561,11 +1552,11 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="13">
-        <f>SUM(F34:M34)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="30" customHeight="1">
       <c r="B35" s="11" t="s">
         <v>51</v>
       </c>
@@ -1587,11 +1578,11 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13">
-        <f>SUM(F35:M35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="30" customHeight="1">
       <c r="B36" s="11" t="s">
         <v>52</v>
       </c>
@@ -1613,11 +1604,11 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13">
-        <f>SUM(F36:M36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="30" customHeight="1">
       <c r="B37" s="11" t="s">
         <v>53</v>
       </c>
@@ -1639,11 +1630,11 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13">
-        <f>SUM(F37:M37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="30" customHeight="1">
       <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="30" customHeight="1">
       <c r="B39" s="11" t="s">
         <v>15</v>
       </c>
@@ -1689,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="30" customHeight="1">
       <c r="B40" s="11" t="s">
         <v>28</v>
       </c>
@@ -1712,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="30" customHeight="1">
       <c r="B41" s="11" t="s">
         <v>29</v>
       </c>
@@ -1735,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="30" customHeight="1">
       <c r="B42" s="11" t="s">
         <v>30</v>
       </c>
@@ -1762,7 +1753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="30" customHeight="1">
       <c r="B43" s="11" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="30" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1802,9 +1793,12 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N44" s="4">
+        <f>SUM(N4:N43)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="30" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1819,7 +1813,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="30" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1834,7 +1828,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="30" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1849,7 +1843,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="30" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1864,7 +1858,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="30" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1879,7 +1873,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="30" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1894,7 +1888,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="30" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1909,7 +1903,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="30" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1924,7 +1918,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="30" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1939,7 +1933,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="30" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1954,7 +1948,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="30" customHeight="1">
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1969,7 +1963,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="30" customHeight="1">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1984,7 +1978,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="30" customHeight="1">
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1999,7 +1993,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="30" customHeight="1">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -2014,7 +2008,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="30" customHeight="1">
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2029,7 +2023,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="30" customHeight="1">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2044,7 +2038,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="30" customHeight="1">
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2059,7 +2053,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="30" customHeight="1">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2074,7 +2068,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="30" customHeight="1">
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -2089,7 +2083,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="30" customHeight="1">
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2104,7 +2098,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="30" customHeight="1">
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2119,7 +2113,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="30" customHeight="1">
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2134,7 +2128,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="30" customHeight="1">
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2149,7 +2143,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="30" customHeight="1">
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2164,7 +2158,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="30" customHeight="1">
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2179,7 +2173,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" ht="30" customHeight="1">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2194,7 +2188,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="30" customHeight="1">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2209,7 +2203,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="30" customHeight="1">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2224,7 +2218,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="30" customHeight="1">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2239,7 +2233,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" ht="30" customHeight="1">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2254,7 +2248,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="30" customHeight="1">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2269,7 +2263,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="30" customHeight="1">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2284,7 +2278,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="30" customHeight="1">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2299,7 +2293,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="30" customHeight="1">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2314,7 +2308,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="30" customHeight="1">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2329,7 +2323,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" ht="30" customHeight="1">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2344,7 +2338,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="30" customHeight="1">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2359,7 +2353,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="30" customHeight="1">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2374,7 +2368,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="30" customHeight="1">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2389,7 +2383,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="30" customHeight="1">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2404,7 +2398,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" ht="30" customHeight="1">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2419,7 +2413,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" ht="30" customHeight="1">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2434,7 +2428,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="30" customHeight="1">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2449,7 +2443,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" ht="30" customHeight="1">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2464,7 +2458,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="30" customHeight="1">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2479,7 +2473,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="30" customHeight="1">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2494,7 +2488,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="30" customHeight="1">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2509,7 +2503,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="30" customHeight="1">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2524,7 +2518,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="30" customHeight="1">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2539,7 +2533,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="30" customHeight="1">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -2554,7 +2548,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="30" customHeight="1">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -2569,7 +2563,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" ht="30" customHeight="1">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -2584,7 +2578,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="30" customHeight="1">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -2599,7 +2593,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" ht="30" customHeight="1">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -2614,7 +2608,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="30" customHeight="1">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -2629,7 +2623,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" ht="30" customHeight="1">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -2644,7 +2638,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="30" customHeight="1">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -2659,7 +2653,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" ht="30" customHeight="1">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -2674,7 +2668,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" ht="30" customHeight="1">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -2689,7 +2683,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="30" customHeight="1">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2704,7 +2698,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="30" customHeight="1">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2719,7 +2713,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="30" customHeight="1">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2734,7 +2728,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="30" customHeight="1">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2749,7 +2743,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" ht="30" customHeight="1">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2764,7 +2758,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" ht="30" customHeight="1">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2779,7 +2773,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" ht="30" customHeight="1">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2794,7 +2788,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="30" customHeight="1">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2809,7 +2803,7 @@
       <c r="M111" s="7"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="30" customHeight="1">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2824,7 +2818,7 @@
       <c r="M112" s="7"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="30" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2839,7 +2833,7 @@
       <c r="M113" s="7"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" ht="30" customHeight="1">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2854,7 +2848,7 @@
       <c r="M114" s="7"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="30" customHeight="1">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2869,7 +2863,7 @@
       <c r="M115" s="7"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" ht="30" customHeight="1">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2884,7 +2878,7 @@
       <c r="M116" s="7"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="30" customHeight="1">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2899,7 +2893,7 @@
       <c r="M117" s="7"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="30" customHeight="1">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2914,7 +2908,7 @@
       <c r="M118" s="7"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="30" customHeight="1">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2929,7 +2923,7 @@
       <c r="M119" s="7"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" ht="30" customHeight="1">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2944,7 +2938,7 @@
       <c r="M120" s="7"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="30" customHeight="1">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2959,7 +2953,7 @@
       <c r="M121" s="7"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" ht="30" customHeight="1">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2974,7 +2968,7 @@
       <c r="M122" s="7"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="30" customHeight="1">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2989,7 +2983,7 @@
       <c r="M123" s="7"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="30" customHeight="1">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -3004,7 +2998,7 @@
       <c r="M124" s="7"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="30" customHeight="1">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -3019,7 +3013,7 @@
       <c r="M125" s="7"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" ht="30" customHeight="1">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -3034,7 +3028,7 @@
       <c r="M126" s="7"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" ht="30" customHeight="1">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -3049,7 +3043,7 @@
       <c r="M127" s="7"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" ht="30" customHeight="1">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -3064,7 +3058,7 @@
       <c r="M128" s="7"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" ht="30" customHeight="1">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -3079,7 +3073,7 @@
       <c r="M129" s="7"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" ht="30" customHeight="1">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -3094,7 +3088,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="30" customHeight="1">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -3109,7 +3103,7 @@
       <c r="M131" s="7"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" ht="30" customHeight="1">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -3124,7 +3118,7 @@
       <c r="M132" s="7"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" ht="30" customHeight="1">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -3139,7 +3133,7 @@
       <c r="M133" s="7"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" ht="30" customHeight="1">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -3154,7 +3148,7 @@
       <c r="M134" s="7"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="30" customHeight="1">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -3169,7 +3163,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" ht="30" customHeight="1">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -3184,7 +3178,7 @@
       <c r="M136" s="7"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" ht="30" customHeight="1">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -3199,7 +3193,7 @@
       <c r="M137" s="7"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" ht="30" customHeight="1">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -3214,91 +3208,91 @@
       <c r="M138" s="7"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="30" customHeight="1">
       <c r="B139" s="3"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" ht="30" customHeight="1">
       <c r="B140" s="3"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" ht="30" customHeight="1">
       <c r="B141" s="3"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" ht="30" customHeight="1">
       <c r="B142" s="3"/>
       <c r="N142" s="2"/>
     </row>
-    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="30" customHeight="1">
       <c r="B143" s="3"/>
       <c r="N143" s="2"/>
     </row>
-    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" ht="30" customHeight="1">
       <c r="B144" s="3"/>
       <c r="N144" s="2"/>
     </row>
-    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" ht="30" customHeight="1">
       <c r="B145" s="3"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" ht="30" customHeight="1">
       <c r="B146" s="3"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" ht="30" customHeight="1">
       <c r="B147" s="3"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" ht="30" customHeight="1">
       <c r="B148" s="3"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" ht="30" customHeight="1">
       <c r="B149" s="3"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="30" customHeight="1">
       <c r="B150" s="3"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" ht="30" customHeight="1">
       <c r="B151" s="3"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" ht="30" customHeight="1">
       <c r="B152" s="3"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="30" customHeight="1">
       <c r="B153" s="3"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" ht="30" customHeight="1">
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="30" customHeight="1">
       <c r="B155" s="3"/>
     </row>
-    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" ht="30" customHeight="1">
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" ht="30" customHeight="1">
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" ht="30" customHeight="1">
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" ht="30" customHeight="1">
       <c r="B159" s="3"/>
     </row>
-    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" ht="30" customHeight="1">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="30" customHeight="1">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="30" customHeight="1">
       <c r="B162" s="3"/>
     </row>
   </sheetData>
